--- a/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>34917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25195</v>
+        <v>25284</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45960</v>
+        <v>47293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1823419886383065</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1315704180197183</v>
+        <v>0.1320344962868303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2400086838307421</v>
+        <v>0.2469677920745717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>31017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21103</v>
+        <v>21709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41830</v>
+        <v>43550</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1541413442062981</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1048725084014848</v>
+        <v>0.1078858585540267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2078785234238271</v>
+        <v>0.2164271838670288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -786,19 +786,19 @@
         <v>65934</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52686</v>
+        <v>52729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83496</v>
+        <v>81883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1678923475253611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1341573793639136</v>
+        <v>0.1342671949686631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2126108516654928</v>
+        <v>0.2085044099988338</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>156576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145533</v>
+        <v>144200</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166298</v>
+        <v>166209</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8176580113616935</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.759991316169258</v>
+        <v>0.7530322079254284</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8684295819802818</v>
+        <v>0.8679655037131697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -836,19 +836,19 @@
         <v>170205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>159392</v>
+        <v>157672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180119</v>
+        <v>179513</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8458586557937019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.792121476576173</v>
+        <v>0.7835728161329713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8951274915985156</v>
+        <v>0.8921141414459735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -857,19 +857,19 @@
         <v>326782</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309220</v>
+        <v>310833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>340030</v>
+        <v>339987</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8321076524746388</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7873891483345071</v>
+        <v>0.7914955900011661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8658426206360863</v>
+        <v>0.8657328050313369</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>58257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44289</v>
+        <v>44789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72949</v>
+        <v>74640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1421742849540843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1080868065093148</v>
+        <v>0.1093054280289628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1780304030347197</v>
+        <v>0.1821582201015917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -982,19 +982,19 @@
         <v>59606</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46194</v>
+        <v>47293</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73981</v>
+        <v>75280</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1350985451321872</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1047001565829275</v>
+        <v>0.1071922150770372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1676811164559656</v>
+        <v>0.1706241476269088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -1003,19 +1003,19 @@
         <v>117862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98279</v>
+        <v>98824</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139769</v>
+        <v>138909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1385056813204081</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1154927700752157</v>
+        <v>0.1161330087864958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1642489189163818</v>
+        <v>0.1632382190474792</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>351499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>336807</v>
+        <v>335116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365467</v>
+        <v>364967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8578257150459158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8219695969652805</v>
+        <v>0.8178417798984083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8919131934906855</v>
+        <v>0.8906945719710373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>379</v>
@@ -1053,19 +1053,19 @@
         <v>381595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367220</v>
+        <v>365921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>395007</v>
+        <v>393908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8649014548678128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8323188835440344</v>
+        <v>0.829375852373091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8952998434170726</v>
+        <v>0.8928077849229628</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>711</v>
@@ -1074,19 +1074,19 @@
         <v>733095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>711188</v>
+        <v>712048</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752678</v>
+        <v>752133</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8614943186795918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8357510810836178</v>
+        <v>0.8367617809525209</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8845072299247841</v>
+        <v>0.8838669912135042</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>31210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21976</v>
+        <v>21018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43613</v>
+        <v>41956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.131943878490279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09290537142141816</v>
+        <v>0.08885702417922851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1843816339855168</v>
+        <v>0.1773762753922782</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1199,19 +1199,19 @@
         <v>68208</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55300</v>
+        <v>54971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82221</v>
+        <v>83271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2361734823850019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1914796636445094</v>
+        <v>0.1903398646788391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2846937205917401</v>
+        <v>0.2883297787424225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -1220,19 +1220,19 @@
         <v>99418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82987</v>
+        <v>82513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119881</v>
+        <v>118798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1892438512219598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1579669938620389</v>
+        <v>0.1570645323812456</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.228195924377102</v>
+        <v>0.2261345252838164</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>205327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>192924</v>
+        <v>194581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214561</v>
+        <v>215519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.868056121509721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.815618366014483</v>
+        <v>0.8226237246077208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9070946285785816</v>
+        <v>0.9111429758207711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -1270,19 +1270,19 @@
         <v>220598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206585</v>
+        <v>205535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>233506</v>
+        <v>233835</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7638265176149981</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7153062794082599</v>
+        <v>0.7116702212575775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8085203363554905</v>
+        <v>0.8096601353211611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>420</v>
@@ -1291,19 +1291,19 @@
         <v>425925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>405462</v>
+        <v>406545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>442356</v>
+        <v>442830</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8107561487780401</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7718040756228984</v>
+        <v>0.7738654747161836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8420330061379612</v>
+        <v>0.8429354676187545</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>43580</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33890</v>
+        <v>33641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56068</v>
+        <v>58018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1628970724283294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.126677409100752</v>
+        <v>0.1257475451046413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2095770298370893</v>
+        <v>0.2168636190442436</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1416,19 +1416,19 @@
         <v>67157</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52258</v>
+        <v>52677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81203</v>
+        <v>81069</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2242063734093374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1744637486898639</v>
+        <v>0.1758625332282095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2710989520922162</v>
+        <v>0.2706509112649778</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1437,19 +1437,19 @@
         <v>110737</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95343</v>
+        <v>93782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131512</v>
+        <v>131067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1952817562332779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1681335873765912</v>
+        <v>0.1653821061308951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2319161705682817</v>
+        <v>0.2311325416260726</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>223951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211463</v>
+        <v>209513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>233641</v>
+        <v>233890</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8371029275716706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.790422970162911</v>
+        <v>0.7831363809557564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8733225908992481</v>
+        <v>0.8742524548953586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>240</v>
@@ -1487,19 +1487,19 @@
         <v>232377</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218331</v>
+        <v>218465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247276</v>
+        <v>246857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7757936265906626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7289010479077837</v>
+        <v>0.7293490887350222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8255362513101361</v>
+        <v>0.8241374667717905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>462</v>
@@ -1508,19 +1508,19 @@
         <v>456328</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>435553</v>
+        <v>435998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>471722</v>
+        <v>473283</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8047182437667221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7680838294317179</v>
+        <v>0.7688674583739273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8318664126234087</v>
+        <v>0.8346178938691042</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14583</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8950</v>
+        <v>9108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22734</v>
+        <v>23750</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0856440532005536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05256103501195901</v>
+        <v>0.05348814335541505</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1335118192969283</v>
+        <v>0.1394793841183218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>23037</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14712</v>
+        <v>14794</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33091</v>
+        <v>32148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1324667343648542</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08459599218533521</v>
+        <v>0.08506796178869114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1902829978752386</v>
+        <v>0.1848556818206027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1654,19 +1654,19 @@
         <v>37620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27730</v>
+        <v>27729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51486</v>
+        <v>50263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1093021586801309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08056791802190053</v>
+        <v>0.08056575376801541</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1495874263890783</v>
+        <v>0.1460361903705561</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>155695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147544</v>
+        <v>146528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>161328</v>
+        <v>161170</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9143559467994464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8664881807030717</v>
+        <v>0.8605206158816779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9474389649880409</v>
+        <v>0.9465118566445849</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1704,19 +1704,19 @@
         <v>150869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140815</v>
+        <v>141758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>159194</v>
+        <v>159112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8675332656351458</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8097170021247613</v>
+        <v>0.8151443181793975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9154040078146646</v>
+        <v>0.9149320382113094</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>298</v>
@@ -1725,19 +1725,19 @@
         <v>306564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292698</v>
+        <v>293921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>316454</v>
+        <v>316455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8906978413198692</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8504125736109216</v>
+        <v>0.8539638096294432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9194320819780994</v>
+        <v>0.9194342462319843</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>36815</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26413</v>
+        <v>27649</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47252</v>
+        <v>48029</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1945097331529192</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1395517726895981</v>
+        <v>0.1460807614990944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2496552710389651</v>
+        <v>0.2537565490634672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1850,19 +1850,19 @@
         <v>32573</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22996</v>
+        <v>23325</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43659</v>
+        <v>45108</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1592928200104722</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1124550431455466</v>
+        <v>0.1140646418095273</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2135035512195974</v>
+        <v>0.2205910389360756</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1871,19 +1871,19 @@
         <v>69388</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55706</v>
+        <v>55337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>85968</v>
+        <v>85685</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1762207443081571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1414721189309082</v>
+        <v>0.140535319497595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2183267583650902</v>
+        <v>0.2176078056259054</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>152455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142018</v>
+        <v>141241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162857</v>
+        <v>161621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8054902668470808</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7503447289610349</v>
+        <v>0.7462434509365327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8604482273104019</v>
+        <v>0.8539192385009056</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>168</v>
@@ -1921,19 +1921,19 @@
         <v>171915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160829</v>
+        <v>159380</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>181492</v>
+        <v>181163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8407071799895278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7864964487804026</v>
+        <v>0.7794089610639242</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8875449568544536</v>
+        <v>0.8859353581904721</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>316</v>
@@ -1942,19 +1942,19 @@
         <v>324370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>307790</v>
+        <v>308073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>338052</v>
+        <v>338421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.823779255691843</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7816732416349099</v>
+        <v>0.7823921943740944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8585278810690916</v>
+        <v>0.8594646805024048</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>70989</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55868</v>
+        <v>56494</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87341</v>
+        <v>89315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1528859264614288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1203201626655437</v>
+        <v>0.1216683758914577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1881029980503553</v>
+        <v>0.1923550373007565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -2067,19 +2067,19 @@
         <v>82035</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66123</v>
+        <v>65279</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99091</v>
+        <v>98056</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1520953938986871</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1225928301884723</v>
+        <v>0.1210282363341083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1837165654298494</v>
+        <v>0.1817971080049391</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -2088,19 +2088,19 @@
         <v>153024</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>131375</v>
+        <v>130112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179843</v>
+        <v>176116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1524611073443956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1308919699460628</v>
+        <v>0.1296336752909172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1791816394082941</v>
+        <v>0.1754676794569471</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>393336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>376984</v>
+        <v>375010</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>408457</v>
+        <v>407831</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8471140735385713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.811897001949645</v>
+        <v>0.8076449626992437</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8796798373344565</v>
+        <v>0.8783316241085424</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>444</v>
@@ -2138,19 +2138,19 @@
         <v>457333</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>440277</v>
+        <v>441312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>473245</v>
+        <v>474089</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8479046061013129</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8162834345701497</v>
+        <v>0.8182028919950608</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8774071698115277</v>
+        <v>0.8789717636658917</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>827</v>
@@ -2159,19 +2159,19 @@
         <v>850668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>823849</v>
+        <v>827576</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>872317</v>
+        <v>873580</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8475388926556044</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8208183605917064</v>
+        <v>0.8245323205430528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8691080300539374</v>
+        <v>0.8703663247090826</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>43301</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31644</v>
+        <v>32402</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56763</v>
+        <v>58655</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08239163680280263</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06021157586012849</v>
+        <v>0.06165334650421953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1080058928080659</v>
+        <v>0.1116069464605394</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2284,19 +2284,19 @@
         <v>78587</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64343</v>
+        <v>62350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98953</v>
+        <v>96429</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1326564795420832</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1086119793064286</v>
+        <v>0.1052474133333036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1670339973857331</v>
+        <v>0.1627739808247493</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -2305,19 +2305,19 @@
         <v>121888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101497</v>
+        <v>103508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>143128</v>
+        <v>143208</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1090271130185823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09078722319673994</v>
+        <v>0.09258630188075112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1280260208372877</v>
+        <v>0.1280975480656896</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>482251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>468789</v>
+        <v>466897</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>493908</v>
+        <v>493150</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9176083631971974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8919941071919352</v>
+        <v>0.8883930535394604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9397884241398715</v>
+        <v>0.9383466534957801</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>491</v>
@@ -2355,19 +2355,19 @@
         <v>513825</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>493459</v>
+        <v>495983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>528069</v>
+        <v>530062</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8673435204579169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8329660026142672</v>
+        <v>0.8372260191752503</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8913880206935714</v>
+        <v>0.8947525866666964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>968</v>
@@ -2376,19 +2376,19 @@
         <v>996075</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>974835</v>
+        <v>974755</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1016466</v>
+        <v>1014455</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8909728869814177</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8719739791627122</v>
+        <v>0.87190245193431</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.90921277680326</v>
+        <v>0.9074136981192487</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>333652</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1359212612573793</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>433</v>
@@ -2501,19 +2501,19 @@
         <v>442221</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1613393267078163</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>768</v>
@@ -2522,19 +2522,19 @@
         <v>775873</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1493303500795586</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2121090</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2085007</v>
+        <v>2080315</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2154693</v>
+        <v>2152026</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8640787387426208</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8493791635638377</v>
+        <v>0.8474678686347529</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.877767482933446</v>
+        <v>0.8766810375667938</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2246</v>
@@ -2572,19 +2572,19 @@
         <v>2298716</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2258096</v>
+        <v>2262342</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2334743</v>
+        <v>2337214</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8386606732921836</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8238407633225295</v>
+        <v>0.8253899391962424</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8518047030437905</v>
+        <v>0.852706202810789</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4318</v>
@@ -2593,19 +2593,19 @@
         <v>4419806</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4366598</v>
+        <v>4369026</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4472294</v>
+        <v>4473947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8506696499204414</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.840428711891577</v>
+        <v>0.8408960827433242</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8607717703177199</v>
+        <v>0.8610899268058231</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>38448</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26471</v>
+        <v>26603</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53964</v>
+        <v>54658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1534490758071702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1056468019330333</v>
+        <v>0.1061742014174535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2153748557363759</v>
+        <v>0.2181425295090553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2962,19 +2962,19 @@
         <v>38869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27210</v>
+        <v>28491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51968</v>
+        <v>52265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1559508301638134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1091721850487714</v>
+        <v>0.1143130012773887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2085065250412175</v>
+        <v>0.2096968669445193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -2983,19 +2983,19 @@
         <v>77317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62104</v>
+        <v>62016</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95290</v>
+        <v>98133</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1546966463623925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1242575512989054</v>
+        <v>0.1240820732264828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1906567370650713</v>
+        <v>0.1963451421168888</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>212112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196596</v>
+        <v>195902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>224089</v>
+        <v>223957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8465509241928298</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7846251442636242</v>
+        <v>0.781857470490945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8943531980669668</v>
+        <v>0.8938257985825466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -3033,19 +3033,19 @@
         <v>210370</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197271</v>
+        <v>196974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222029</v>
+        <v>220748</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8440491698361866</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7914934749587823</v>
+        <v>0.7903031330554809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8908278149512285</v>
+        <v>0.8856869987226115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>397</v>
@@ -3054,19 +3054,19 @@
         <v>422483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>404510</v>
+        <v>401667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437696</v>
+        <v>437784</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8453033536376074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8093432629349289</v>
+        <v>0.8036548578831111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.875742448701095</v>
+        <v>0.8759179267735171</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>46229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34166</v>
+        <v>34281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60853</v>
+        <v>61402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1137715907626626</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08408491959498815</v>
+        <v>0.08436775296924964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1497624545724044</v>
+        <v>0.1511147209474107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -3179,19 +3179,19 @@
         <v>70317</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55452</v>
+        <v>55517</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88102</v>
+        <v>88474</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1606061030860249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1266541840389026</v>
+        <v>0.1268018367212743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2012264516069106</v>
+        <v>0.2020768897716833</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -3200,19 +3200,19 @@
         <v>116546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96584</v>
+        <v>97194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135825</v>
+        <v>139652</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1380624898860302</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1144158430341817</v>
+        <v>0.1151375611409574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1609013312115287</v>
+        <v>0.1654343571601518</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>360101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345477</v>
+        <v>344928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>372164</v>
+        <v>372049</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8862284092373375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8502375454275957</v>
+        <v>0.8488852790525894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9159150804050119</v>
+        <v>0.9156322470307505</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -3250,19 +3250,19 @@
         <v>367506</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349721</v>
+        <v>349349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>382371</v>
+        <v>382306</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.839393896913975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7987735483930892</v>
+        <v>0.7979231102283166</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8733458159610971</v>
+        <v>0.8731981632787257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>679</v>
@@ -3271,19 +3271,19 @@
         <v>727607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>708328</v>
+        <v>704501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747569</v>
+        <v>746959</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8619375101139698</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8390986687884713</v>
+        <v>0.834565642839848</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8855841569658182</v>
+        <v>0.8848624388590425</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>49329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38497</v>
+        <v>37217</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63494</v>
+        <v>63641</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1679787820320904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1310915542357541</v>
+        <v>0.1267345615305863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2162123654872718</v>
+        <v>0.2167141120316136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -3396,19 +3396,19 @@
         <v>75593</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61373</v>
+        <v>60413</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91839</v>
+        <v>93433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2299397526826879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1866860878491309</v>
+        <v>0.1837648739193148</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2793554250525794</v>
+        <v>0.2842040842866726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -3417,19 +3417,19 @@
         <v>124922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105275</v>
+        <v>105750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145817</v>
+        <v>147103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2007057580781129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1691385019561667</v>
+        <v>0.1699021165049148</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2342763908968422</v>
+        <v>0.2363419109670754</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>244335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230170</v>
+        <v>230023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255167</v>
+        <v>256447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8320212179679096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7837876345127283</v>
+        <v>0.7832858879683864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.868908445764246</v>
+        <v>0.8732654384694137</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -3467,19 +3467,19 @@
         <v>253159</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236913</v>
+        <v>235319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267379</v>
+        <v>268339</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.770060247317312</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7206445749474206</v>
+        <v>0.7157959157133275</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8133139121508691</v>
+        <v>0.8162351260806852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>479</v>
@@ -3488,19 +3488,19 @@
         <v>497494</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>476599</v>
+        <v>475313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>517141</v>
+        <v>516666</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7992942419218871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7657236091031578</v>
+        <v>0.7636580890329246</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8308614980438336</v>
+        <v>0.8300978834950853</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>44659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32873</v>
+        <v>32643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58018</v>
+        <v>59374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1426447811286391</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1049992958995109</v>
+        <v>0.1042643985272639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1853151214062397</v>
+        <v>0.1896453127873926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -3613,19 +3613,19 @@
         <v>59615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46509</v>
+        <v>46581</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76696</v>
+        <v>74519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1738973549865228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1356680964190015</v>
+        <v>0.1358779746183919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2237235926406715</v>
+        <v>0.2173741465606903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -3634,19 +3634,19 @@
         <v>104273</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84461</v>
+        <v>84609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123346</v>
+        <v>122821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1589795531207551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1287723305440595</v>
+        <v>0.1289980668014025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1880586866214916</v>
+        <v>0.1872585550784517</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>268418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255059</v>
+        <v>253703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280204</v>
+        <v>280434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8573552188713609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8146848785937603</v>
+        <v>0.8103546872126074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.895000704100489</v>
+        <v>0.8957356014727359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -3684,19 +3684,19 @@
         <v>283200</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266119</v>
+        <v>268296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296306</v>
+        <v>296234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8261026450134772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7762764073593288</v>
+        <v>0.7826258534393097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8643319035809987</v>
+        <v>0.8641220253816082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>518</v>
@@ -3705,19 +3705,19 @@
         <v>551618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>532545</v>
+        <v>533070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>571430</v>
+        <v>571282</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8410204468792448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8119413133785086</v>
+        <v>0.8127414449215483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8712276694559405</v>
+        <v>0.8710019331985975</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>33530</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23021</v>
+        <v>23782</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45795</v>
+        <v>46061</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1745849382524056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1198649228450804</v>
+        <v>0.1238272896263485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2384430619022647</v>
+        <v>0.2398298122061954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3830,19 +3830,19 @@
         <v>34097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24906</v>
+        <v>24168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43879</v>
+        <v>45571</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1752312173559532</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1279961399698627</v>
+        <v>0.1242037728560256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2255051321345803</v>
+        <v>0.2342004648330713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -3851,19 +3851,19 @@
         <v>67627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53782</v>
+        <v>53608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83679</v>
+        <v>84225</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1749101865821711</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1391011450464762</v>
+        <v>0.1386513502547835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2164249688451383</v>
+        <v>0.2178390649042057</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>158528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146263</v>
+        <v>145997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169037</v>
+        <v>168276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8254150617475944</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7615569380977353</v>
+        <v>0.7601701877938045</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8801350771549196</v>
+        <v>0.8761727103736514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -3901,19 +3901,19 @@
         <v>160485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150703</v>
+        <v>149011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169676</v>
+        <v>170414</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8247687826440468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7744948678654197</v>
+        <v>0.7657995351669287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8720038600301373</v>
+        <v>0.8757962271439744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>300</v>
@@ -3922,19 +3922,19 @@
         <v>319013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>302961</v>
+        <v>302415</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332858</v>
+        <v>333032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8250898134178289</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7835750311548617</v>
+        <v>0.7821609350957939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8608988549535236</v>
+        <v>0.8613486497452163</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>29408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20378</v>
+        <v>20570</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39977</v>
+        <v>40020</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1176433027353184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08152208573955276</v>
+        <v>0.08229078701180405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1599255964825481</v>
+        <v>0.1600970067348363</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -4047,19 +4047,19 @@
         <v>54649</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43227</v>
+        <v>42065</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69931</v>
+        <v>69704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2063540713129801</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1632268279243681</v>
+        <v>0.1588382890885865</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2640615213608245</v>
+        <v>0.2632021845482315</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -4068,19 +4068,19 @@
         <v>84056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68343</v>
+        <v>69155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103429</v>
+        <v>102383</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1632787358838919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1327547208483571</v>
+        <v>0.1343325097801289</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2009097159039878</v>
+        <v>0.1988770643911209</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>220565</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209996</v>
+        <v>209953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229595</v>
+        <v>229403</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8823566972646816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.840074403517452</v>
+        <v>0.8399029932651637</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9184779142604473</v>
+        <v>0.917709212988196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -4118,19 +4118,19 @@
         <v>210181</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194899</v>
+        <v>195126</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>221603</v>
+        <v>222765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7936459286870199</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7359384786391755</v>
+        <v>0.7367978154517688</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8367731720756318</v>
+        <v>0.8411617109114136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>411</v>
@@ -4139,19 +4139,19 @@
         <v>430747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>411374</v>
+        <v>412420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446460</v>
+        <v>445648</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8367212641161081</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7990902840960121</v>
+        <v>0.8011229356088791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8672452791516428</v>
+        <v>0.8656674902198711</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>114324</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95535</v>
+        <v>96603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135718</v>
+        <v>135691</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1987929223817597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1661216870708252</v>
+        <v>0.1679788153284872</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2359939284931927</v>
+        <v>0.2359476091514287</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>118</v>
@@ -4264,19 +4264,19 @@
         <v>131282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109893</v>
+        <v>109736</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154063</v>
+        <v>153130</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2097197921266847</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1755511875321727</v>
+        <v>0.1753011080801419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.246111473826115</v>
+        <v>0.2446213793314424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -4285,19 +4285,19 @@
         <v>245606</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>218004</v>
+        <v>217813</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>276554</v>
+        <v>277004</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2044878711366562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1815067789465287</v>
+        <v>0.1813478298659129</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2302549561991354</v>
+        <v>0.2306290929314762</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>460767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>439373</v>
+        <v>439400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>479556</v>
+        <v>478488</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8012070776182404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7640060715068073</v>
+        <v>0.7640523908485714</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8338783129291748</v>
+        <v>0.8320211846715129</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>454</v>
@@ -4335,19 +4335,19 @@
         <v>494705</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>471924</v>
+        <v>472857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>516094</v>
+        <v>516251</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7902802078733152</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.753888526173885</v>
+        <v>0.7553786206685577</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8244488124678273</v>
+        <v>0.824698891919858</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>887</v>
@@ -4356,19 +4356,19 @@
         <v>955472</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>924524</v>
+        <v>924074</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>983074</v>
+        <v>983265</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7955121288633438</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7697450438008647</v>
+        <v>0.7693709070685238</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8184932210534713</v>
+        <v>0.8186521701340871</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>81219</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65365</v>
+        <v>64540</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101173</v>
+        <v>101534</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1281251060524625</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.10311459891551</v>
+        <v>0.1018138614245346</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1596021260880697</v>
+        <v>0.1601723417950931</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -4481,19 +4481,19 @@
         <v>109277</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>91015</v>
+        <v>89860</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>129965</v>
+        <v>127391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1555995559674901</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1295963763850995</v>
+        <v>0.1279522131328135</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1850582649655066</v>
+        <v>0.1813925182547025</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>171</v>
@@ -4502,19 +4502,19 @@
         <v>190496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165631</v>
+        <v>166779</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>217765</v>
+        <v>221530</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1425654289389331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1239570980919238</v>
+        <v>0.1248156809301238</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1629731115187568</v>
+        <v>0.1657909747789087</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>552686</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>532732</v>
+        <v>532371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>568540</v>
+        <v>569365</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8718748939475376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8403978739119304</v>
+        <v>0.8398276582049068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.89688540108449</v>
+        <v>0.8981861385754654</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>546</v>
@@ -4552,19 +4552,19 @@
         <v>593017</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>572329</v>
+        <v>574903</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>611279</v>
+        <v>612434</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8444004440325099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8149417350344933</v>
+        <v>0.8186074817452974</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8704036236149004</v>
+        <v>0.8720477868671864</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1059</v>
@@ -4573,19 +4573,19 @@
         <v>1145703</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1118434</v>
+        <v>1114669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1170568</v>
+        <v>1169420</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8574345710610669</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8370268884812431</v>
+        <v>0.8342090252210913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8760429019080761</v>
+        <v>0.8751843190698761</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>437147</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>395485</v>
+        <v>398654</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>476803</v>
+        <v>482068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1499820557806096</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1356881827708394</v>
+        <v>0.1367755886967627</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1635878062444834</v>
+        <v>0.1653941477088716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>527</v>
@@ -4698,19 +4698,19 @@
         <v>573698</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>530837</v>
+        <v>529623</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>616885</v>
+        <v>614338</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1823392284034309</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1687165810683336</v>
+        <v>0.1683309873249518</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.196065453304522</v>
+        <v>0.1952558437214867</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>921</v>
@@ -4719,19 +4719,19 @@
         <v>1010844</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>955037</v>
+        <v>955097</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1070311</v>
+        <v>1074787</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1667790201167212</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1575713248318974</v>
+        <v>0.1575813024857926</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1765904805406887</v>
+        <v>0.1773289951869211</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2477512</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2437856</v>
+        <v>2432591</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2519174</v>
+        <v>2516005</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8500179442193904</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8364121937555166</v>
+        <v>0.8346058522911284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8643118172291605</v>
+        <v>0.8632244113032372</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2388</v>
@@ -4769,19 +4769,19 @@
         <v>2572623</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2529436</v>
+        <v>2531983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2615484</v>
+        <v>2616698</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.817660771596569</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8039345466954779</v>
+        <v>0.8047441562785131</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8312834189316664</v>
+        <v>0.8316690126750482</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4730</v>
@@ -4790,19 +4790,19 @@
         <v>5050136</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4990669</v>
+        <v>4986193</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5105943</v>
+        <v>5105883</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8332209798832788</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8234095194593113</v>
+        <v>0.822671004813079</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8424286751681028</v>
+        <v>0.8424186975142075</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>12616</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6607</v>
+        <v>6936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21468</v>
+        <v>22005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05144858938969397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02694388775520851</v>
+        <v>0.02828460920705153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08754631319033462</v>
+        <v>0.08973737452092949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5159,19 +5159,19 @@
         <v>19739</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12069</v>
+        <v>12489</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29145</v>
+        <v>29288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08013301633763575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04899269163229681</v>
+        <v>0.05070127855238564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1183155004605915</v>
+        <v>0.1188953990770999</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -5180,19 +5180,19 @@
         <v>32356</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21885</v>
+        <v>21176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44303</v>
+        <v>43882</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06582336954335667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04452212727788697</v>
+        <v>0.04307944997590371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09012982443662619</v>
+        <v>0.0892727936209254</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>232602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223750</v>
+        <v>223213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238611</v>
+        <v>238282</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.948551410610306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9124536868096654</v>
+        <v>0.9102626254790702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9730561122447914</v>
+        <v>0.9717153907929484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -5230,19 +5230,19 @@
         <v>226595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217189</v>
+        <v>217046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234265</v>
+        <v>233845</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9198669836623643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8816844995394085</v>
+        <v>0.8811046009229001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9510073083677033</v>
+        <v>0.9492987214476143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>429</v>
@@ -5251,19 +5251,19 @@
         <v>459195</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447248</v>
+        <v>447669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>469666</v>
+        <v>470375</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9341766304566433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9098701755633739</v>
+        <v>0.9107272063790746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9554778727221134</v>
+        <v>0.9569205500240964</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>49422</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37227</v>
+        <v>38681</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64479</v>
+        <v>64424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1360866635961371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1025072478185612</v>
+        <v>0.1065096534732391</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1775478226790295</v>
+        <v>0.1773956067583111</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -5376,19 +5376,19 @@
         <v>58602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45135</v>
+        <v>45694</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75325</v>
+        <v>73869</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1489896461458532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1147513345054846</v>
+        <v>0.11617203358992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1915062738187901</v>
+        <v>0.1878048850601772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -5397,19 +5397,19 @@
         <v>108024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89299</v>
+        <v>87431</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129537</v>
+        <v>129052</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1427953770572835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1180436945914866</v>
+        <v>0.1155743409511163</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1712335327325493</v>
+        <v>0.1705920891837617</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>313743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298686</v>
+        <v>298741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>325938</v>
+        <v>324484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8639133364038629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8224521773209705</v>
+        <v>0.8226043932416889</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8974927521814384</v>
+        <v>0.8934903465267603</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -5447,19 +5447,19 @@
         <v>334725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318002</v>
+        <v>319458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348192</v>
+        <v>347633</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8510103538541468</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.80849372618121</v>
+        <v>0.8121951149398229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8852486654945154</v>
+        <v>0.8838279664100801</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>616</v>
@@ -5468,19 +5468,19 @@
         <v>648468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>626955</v>
+        <v>627440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>667193</v>
+        <v>669061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8572046229427165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8287664672674506</v>
+        <v>0.8294079108162382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8819563054085134</v>
+        <v>0.8844256590488836</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>32418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22827</v>
+        <v>23872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43824</v>
+        <v>43300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1115894142033872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07857810645882407</v>
+        <v>0.08217478520500079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1508546393290402</v>
+        <v>0.149048363527919</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5593,19 +5593,19 @@
         <v>30173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20925</v>
+        <v>21407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40925</v>
+        <v>42924</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09804010095492123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06799161295907</v>
+        <v>0.06955737114990763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1329754145987217</v>
+        <v>0.1394693577936411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -5614,19 +5614,19 @@
         <v>62591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48333</v>
+        <v>48454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79000</v>
+        <v>78108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1046193394339056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0807880313389315</v>
+        <v>0.08099019610827642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1320465990380489</v>
+        <v>0.1305569300116123</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>258089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246683</v>
+        <v>247207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267680</v>
+        <v>266635</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8884105857966128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8491453606709598</v>
+        <v>0.8509516364720811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9214218935411759</v>
+        <v>0.9178252147949993</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -5664,19 +5664,19 @@
         <v>277591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266839</v>
+        <v>264840</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286839</v>
+        <v>286357</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9019598990450788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8670245854012785</v>
+        <v>0.8605306422063589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.93200838704093</v>
+        <v>0.9304426288500923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>545</v>
@@ -5685,19 +5685,19 @@
         <v>535679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>519270</v>
+        <v>520162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549937</v>
+        <v>549816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8953806605660943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8679534009619513</v>
+        <v>0.8694430699883877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9192119686610686</v>
+        <v>0.9190098038917237</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>43027</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31806</v>
+        <v>31804</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56594</v>
+        <v>56694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1303675213817877</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09636820603508338</v>
+        <v>0.09636109216855085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1714720565018316</v>
+        <v>0.1717760087028126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -5810,19 +5810,19 @@
         <v>56957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42374</v>
+        <v>43557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71866</v>
+        <v>72506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1632648296471708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1214643237880705</v>
+        <v>0.1248559494562441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2060014700730975</v>
+        <v>0.207835750949876</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -5831,19 +5831,19 @@
         <v>99984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81899</v>
+        <v>81042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120533</v>
+        <v>120637</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1472719938287938</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.120633456136266</v>
+        <v>0.1193711065067343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1775389670615739</v>
+        <v>0.1776926537938205</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>287020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>273453</v>
+        <v>273353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298241</v>
+        <v>298243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8696324786182122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8285279434981686</v>
+        <v>0.8282239912971862</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9036317939649167</v>
+        <v>0.9036389078314491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -5881,19 +5881,19 @@
         <v>291904</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>276995</v>
+        <v>276355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306487</v>
+        <v>305304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8367351703528292</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7939985299269025</v>
+        <v>0.7921642490501241</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8785356762119295</v>
+        <v>0.875144050543756</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>546</v>
@@ -5902,19 +5902,19 @@
         <v>578924</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>558375</v>
+        <v>558271</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597009</v>
+        <v>597866</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8527280061712063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8224610329384258</v>
+        <v>0.8223073462061793</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.879366543863734</v>
+        <v>0.8806288934932656</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>17310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10298</v>
+        <v>10713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26220</v>
+        <v>26893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1451892397310517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08637500362560123</v>
+        <v>0.08986152575288246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2199265690108657</v>
+        <v>0.2255706327372165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -6027,19 +6027,19 @@
         <v>25372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16781</v>
+        <v>16425</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35570</v>
+        <v>35552</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1743778582983342</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1153354168320706</v>
+        <v>0.1128890168676367</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2444654202124069</v>
+        <v>0.2443427951442428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -6048,19 +6048,19 @@
         <v>42682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31814</v>
+        <v>31781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56005</v>
+        <v>56366</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1612322566925693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1201790173112126</v>
+        <v>0.1200536647139733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.211561023651314</v>
+        <v>0.2129237397838336</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>101912</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93002</v>
+        <v>92329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108924</v>
+        <v>108509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8548107602689483</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7800734309891343</v>
+        <v>0.7744293672627834</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9136249963743988</v>
+        <v>0.9101384742471175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -6098,19 +6098,19 @@
         <v>120128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109930</v>
+        <v>109948</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128719</v>
+        <v>129075</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8256221417016658</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.755534579787593</v>
+        <v>0.7556572048557569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8846645831679293</v>
+        <v>0.8871109831323629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>228</v>
@@ -6119,19 +6119,19 @@
         <v>222040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>208717</v>
+        <v>208356</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232908</v>
+        <v>232941</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8387677433074308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.788438976348686</v>
+        <v>0.7870762602161666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8798209826887874</v>
+        <v>0.8799463352860267</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>16647</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9957</v>
+        <v>10378</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25754</v>
+        <v>26164</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07125717147575077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04262128714299095</v>
+        <v>0.04442296220201485</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1102418835775488</v>
+        <v>0.1119944188537663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6244,19 +6244,19 @@
         <v>15938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8028</v>
+        <v>8752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25252</v>
+        <v>24807</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06449037133161793</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03248504535614501</v>
+        <v>0.03541189391612572</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1021800779220339</v>
+        <v>0.1003761182350847</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -6265,19 +6265,19 @@
         <v>32585</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22672</v>
+        <v>22247</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44942</v>
+        <v>46786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06777860786789844</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04715869153600929</v>
+        <v>0.04627606646001479</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09348267141958845</v>
+        <v>0.09731716259728945</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>216968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207861</v>
+        <v>207451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223658</v>
+        <v>223237</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9287428285242493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8897581164224512</v>
+        <v>0.8880055811462336</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.957378712857009</v>
+        <v>0.9555770377979852</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -6315,19 +6315,19 @@
         <v>231199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221885</v>
+        <v>222330</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239109</v>
+        <v>238385</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9355096286683821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8978199220779666</v>
+        <v>0.8996238817649147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9675149546438558</v>
+        <v>0.9645881060838742</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>438</v>
@@ -6336,19 +6336,19 @@
         <v>448168</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>435811</v>
+        <v>433967</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>458081</v>
+        <v>458506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9322213921321015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9065173285804116</v>
+        <v>0.9026828374027107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9528413084639906</v>
+        <v>0.9537239335399855</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>36422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24231</v>
+        <v>26151</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49093</v>
+        <v>49895</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08234525999994778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0547842365739579</v>
+        <v>0.05912374735280386</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1109940168760382</v>
+        <v>0.112805370907745</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -6461,19 +6461,19 @@
         <v>43453</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31767</v>
+        <v>32016</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58165</v>
+        <v>57814</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08921599434423534</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06522403697079571</v>
+        <v>0.06573499634079416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1194233731336018</v>
+        <v>0.1187027056294906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -6482,19 +6482,19 @@
         <v>79875</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63741</v>
+        <v>62281</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99014</v>
+        <v>99055</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08594602242485259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06858625242382037</v>
+        <v>0.06701456234239346</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1065403103406527</v>
+        <v>0.106583819888774</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>405885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>393214</v>
+        <v>392412</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>418076</v>
+        <v>416156</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9176547400000522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8890059831239621</v>
+        <v>0.887194629092255</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9452157634260422</v>
+        <v>0.9408762526471963</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>422</v>
@@ -6532,19 +6532,19 @@
         <v>443598</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>428886</v>
+        <v>429237</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>455284</v>
+        <v>455035</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9107840056557647</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8805766268663989</v>
+        <v>0.8812972943705096</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9347759630292044</v>
+        <v>0.9342650036592061</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>775</v>
@@ -6553,19 +6553,19 @@
         <v>849483</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>830344</v>
+        <v>830303</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>865617</v>
+        <v>867077</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9140539775751474</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8934596896593473</v>
+        <v>0.8934161801112264</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9314137475761796</v>
+        <v>0.9329854376576066</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>75864</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59630</v>
+        <v>61694</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>93505</v>
+        <v>94783</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1184901833812418</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09313516574605832</v>
+        <v>0.0963587410564785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1460439951259155</v>
+        <v>0.1480405850675342</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -6678,19 +6678,19 @@
         <v>83356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66449</v>
+        <v>67785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101257</v>
+        <v>103773</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1205716519620151</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09611600609094249</v>
+        <v>0.09804854191154685</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1464642652634035</v>
+        <v>0.1501041073529041</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>142</v>
@@ -6699,19 +6699,19 @@
         <v>159220</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134602</v>
+        <v>136312</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>183493</v>
+        <v>184450</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1195708478741197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1010830936013056</v>
+        <v>0.1023678757311094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1377993852553427</v>
+        <v>0.1385181677291253</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>564388</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>546747</v>
+        <v>545469</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>580622</v>
+        <v>578558</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8815098166187582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8539560048740845</v>
+        <v>0.8519594149324656</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9068648342539415</v>
+        <v>0.9036412589435214</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>564</v>
@@ -6749,19 +6749,19 @@
         <v>607985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>590084</v>
+        <v>587568</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>624892</v>
+        <v>623556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8794283480379849</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8535357347365965</v>
+        <v>0.8498958926470958</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9038839939090575</v>
+        <v>0.9019514580884531</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1109</v>
@@ -6770,19 +6770,19 @@
         <v>1172373</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1148100</v>
+        <v>1147143</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1196991</v>
+        <v>1195281</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8804291521258802</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8622006147446577</v>
+        <v>0.8614818322708748</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8989169063986945</v>
+        <v>0.8976321242688911</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>283725</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>254055</v>
+        <v>253910</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>319834</v>
+        <v>314709</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1064900429551888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09535404479675966</v>
+        <v>0.09529982325498546</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1200427092386084</v>
+        <v>0.118119105360795</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>298</v>
@@ -6895,19 +6895,19 @@
         <v>333590</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>297576</v>
+        <v>299802</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370520</v>
+        <v>369709</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.116342249229173</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1037821014008723</v>
+        <v>0.1045585965468454</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.129221918957221</v>
+        <v>0.1289392457201006</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>571</v>
@@ -6916,19 +6916,19 @@
         <v>617315</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>570149</v>
+        <v>571408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>669840</v>
+        <v>668144</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1115969076466571</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1030703796187409</v>
+        <v>0.1032979491098011</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.121092266250732</v>
+        <v>0.1207856635563722</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2380608</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2344499</v>
+        <v>2349624</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2410278</v>
+        <v>2410423</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8935099570448112</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8799572907613916</v>
+        <v>0.881880894639205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9046459552032403</v>
+        <v>0.9047001767450146</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2429</v>
@@ -6966,19 +6966,19 @@
         <v>2533725</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2496795</v>
+        <v>2497606</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2569739</v>
+        <v>2567513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.883657750770827</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8707780810427789</v>
+        <v>0.8710607542798994</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8962178985991277</v>
+        <v>0.8954414034531546</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4686</v>
@@ -6987,19 +6987,19 @@
         <v>4914333</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4861808</v>
+        <v>4863504</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4961499</v>
+        <v>4960240</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8884030923533429</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8789077337492672</v>
+        <v>0.8792143364436277</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.896929620381259</v>
+        <v>0.8967020508901989</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>31377</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22922</v>
+        <v>22754</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42033</v>
+        <v>41714</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1042709823686437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07617423437169475</v>
+        <v>0.07561590613432795</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1396824166267436</v>
+        <v>0.1386232579154134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -7356,19 +7356,19 @@
         <v>22875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16816</v>
+        <v>16843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30149</v>
+        <v>29859</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07391717193542352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05433923047343577</v>
+        <v>0.05442713012316103</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09742300709801237</v>
+        <v>0.09648531544313782</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -7377,19 +7377,19 @@
         <v>54252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43090</v>
+        <v>43709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67207</v>
+        <v>67155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08888156386583582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07059482374591049</v>
+        <v>0.07160877322397068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1101070378507422</v>
+        <v>0.1100212495455584</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>269540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258884</v>
+        <v>259203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277995</v>
+        <v>278163</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8957290176313565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8603175833732565</v>
+        <v>0.8613767420845869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9238257656283052</v>
+        <v>0.9243840938656722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>487</v>
@@ -7427,19 +7427,19 @@
         <v>286589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279315</v>
+        <v>279605</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292648</v>
+        <v>292621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9260828280645763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9025769929019877</v>
+        <v>0.9035146845568631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9456607695265642</v>
+        <v>0.9455728698768392</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>766</v>
@@ -7448,19 +7448,19 @@
         <v>556129</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>543174</v>
+        <v>543226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>567291</v>
+        <v>566672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9111184361341642</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8898929621492578</v>
+        <v>0.8899787504544416</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9294051762540895</v>
+        <v>0.9283912267760295</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>41977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30780</v>
+        <v>30125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57779</v>
+        <v>56158</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08103154643043345</v>
+        <v>0.08103154643043346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05941770496402449</v>
+        <v>0.05815314283553797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1115371611530405</v>
+        <v>0.1084074231633974</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -7573,19 +7573,19 @@
         <v>70539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58983</v>
+        <v>58278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84474</v>
+        <v>83682</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1326884664653329</v>
+        <v>0.1326884664653328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1109507683839557</v>
+        <v>0.1096254974118791</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1589008921685159</v>
+        <v>0.1574116351528191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -7594,19 +7594,19 @@
         <v>112515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96890</v>
+        <v>94139</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134720</v>
+        <v>131279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1071942535319818</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09230748122601946</v>
+        <v>0.08968668488370636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1283487449380207</v>
+        <v>0.1250709628742444</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>476051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460249</v>
+        <v>461870</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487248</v>
+        <v>487903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9189684535695665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8884628388469595</v>
+        <v>0.8915925768366029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9405822950359753</v>
+        <v>0.941846857164462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>585</v>
@@ -7644,19 +7644,19 @@
         <v>461073</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>447138</v>
+        <v>447930</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>472629</v>
+        <v>473334</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8673115335346671</v>
+        <v>0.8673115335346672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8410991078314838</v>
+        <v>0.842588364847181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8890492316160442</v>
+        <v>0.8903745025881209</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>915</v>
@@ -7665,19 +7665,19 @@
         <v>937125</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>914920</v>
+        <v>918361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>952750</v>
+        <v>955501</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8928057464680181</v>
+        <v>0.8928057464680185</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8716512550619792</v>
+        <v>0.8749290371257558</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9076925187739805</v>
+        <v>0.9103133151162937</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>33897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25495</v>
+        <v>26150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43445</v>
+        <v>44090</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1129026977862586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0849191608087476</v>
+        <v>0.08709842574440607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1447057856452341</v>
+        <v>0.1468538171047359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -7790,19 +7790,19 @@
         <v>50369</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40629</v>
+        <v>42090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60487</v>
+        <v>62069</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1474055113836479</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1189009000596827</v>
+        <v>0.1231757070830392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1770163323599677</v>
+        <v>0.1816452857487741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -7811,19 +7811,19 @@
         <v>84266</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71229</v>
+        <v>71422</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98906</v>
+        <v>96623</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.131268681033087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1109599031502392</v>
+        <v>0.1112611989264067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1540746920899575</v>
+        <v>0.1505184238203985</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>266334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256786</v>
+        <v>256141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274736</v>
+        <v>274081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8870973022137414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8552942143547658</v>
+        <v>0.8531461828952641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9150808391912524</v>
+        <v>0.9129015742555939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -7861,19 +7861,19 @@
         <v>291336</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>281218</v>
+        <v>279636</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>301076</v>
+        <v>299615</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8525944886163525</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8229836676400322</v>
+        <v>0.8183547142512259</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8810990999403174</v>
+        <v>0.876824292916961</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>718</v>
@@ -7882,19 +7882,19 @@
         <v>557669</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>543029</v>
+        <v>545312</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570706</v>
+        <v>570513</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8687313189669131</v>
+        <v>0.8687313189669129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8459253079100425</v>
+        <v>0.8494815761796016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8890400968497607</v>
+        <v>0.8887388010735933</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>43399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30758</v>
+        <v>31579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57629</v>
+        <v>58616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1170604260161573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08296376693047071</v>
+        <v>0.08517877893256709</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1554447347318123</v>
+        <v>0.1581058386962334</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -8007,19 +8007,19 @@
         <v>52505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42799</v>
+        <v>42735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64365</v>
+        <v>63762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1251282857961378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1019961773141715</v>
+        <v>0.1018426832679012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1533911504947384</v>
+        <v>0.1519538951546406</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -8028,19 +8028,19 @@
         <v>95904</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80708</v>
+        <v>81184</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113546</v>
+        <v>113062</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1213438125004849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1021169091450625</v>
+        <v>0.1027188779717266</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1436657105399265</v>
+        <v>0.1430526010748787</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>327339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313109</v>
+        <v>312122</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>339980</v>
+        <v>339159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8829395739838426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8445552652681877</v>
+        <v>0.8418941613037666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9170362330695295</v>
+        <v>0.9148212210674328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>488</v>
@@ -8078,19 +8078,19 @@
         <v>367108</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355248</v>
+        <v>355851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376814</v>
+        <v>376878</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8748717142038622</v>
+        <v>0.874871714203862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8466088495052616</v>
+        <v>0.8480461048453594</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8980038226858286</v>
+        <v>0.8981573167320986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>724</v>
@@ -8099,19 +8099,19 @@
         <v>694447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>676805</v>
+        <v>677289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>709643</v>
+        <v>709167</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8786561874995149</v>
+        <v>0.878656187499515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8563342894600735</v>
+        <v>0.8569473989251205</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8978830908549376</v>
+        <v>0.8972811220282733</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>19814</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13739</v>
+        <v>14053</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26329</v>
+        <v>27603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1046720052504342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07257701720979783</v>
+        <v>0.07423857569368468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1390847588667885</v>
+        <v>0.1458178587948778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -8224,19 +8224,19 @@
         <v>44433</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36779</v>
+        <v>36807</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52068</v>
+        <v>51909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2021490026119067</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.167326376063023</v>
+        <v>0.1674543280983129</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2368844107034241</v>
+        <v>0.2361623405408974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -8245,19 +8245,19 @@
         <v>64247</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54767</v>
+        <v>55359</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75016</v>
+        <v>75119</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1570444166202807</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1338723142075716</v>
+        <v>0.1353184914983392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1833674301377314</v>
+        <v>0.1836200256592078</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>169485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162970</v>
+        <v>161696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175560</v>
+        <v>175246</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8953279947495659</v>
+        <v>0.8953279947495657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8609152411332115</v>
+        <v>0.8541821412051224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9274229827902021</v>
+        <v>0.9257614243063153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>360</v>
@@ -8295,19 +8295,19 @@
         <v>175369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167734</v>
+        <v>167893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183023</v>
+        <v>182995</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7978509973880934</v>
+        <v>0.7978509973880933</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7631155892965759</v>
+        <v>0.7638376594591025</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8326736239369766</v>
+        <v>0.832545671901687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>589</v>
@@ -8316,19 +8316,19 @@
         <v>344854</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>334085</v>
+        <v>333982</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>354334</v>
+        <v>353742</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8429555833797193</v>
+        <v>0.8429555833797192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8166325698622686</v>
+        <v>0.8163799743407921</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8661276857924283</v>
+        <v>0.8646815085016609</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>32163</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24798</v>
+        <v>24776</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40685</v>
+        <v>41192</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1287888257706616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09929597272322443</v>
+        <v>0.09920716122103121</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1629121522474597</v>
+        <v>0.1649410746853907</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -8441,19 +8441,19 @@
         <v>27757</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21309</v>
+        <v>21337</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35284</v>
+        <v>35107</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1103380335456084</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08470813609532173</v>
+        <v>0.08481909092633295</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.140259331044731</v>
+        <v>0.139555216029433</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -8462,19 +8462,19 @@
         <v>59920</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50266</v>
+        <v>49596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70779</v>
+        <v>71548</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1195298479429171</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1002728479447321</v>
+        <v>0.09893498152914053</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1411918180580502</v>
+        <v>0.142727098581691</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>217572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209050</v>
+        <v>208543</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224937</v>
+        <v>224959</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8712111742293384</v>
+        <v>0.8712111742293386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8370878477525401</v>
+        <v>0.8350589253146092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9007040272767757</v>
+        <v>0.9007928387789685</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -8512,19 +8512,19 @@
         <v>223803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216276</v>
+        <v>216453</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230251</v>
+        <v>230223</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8896619664543916</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.859740668955269</v>
+        <v>0.8604447839705672</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9152918639046783</v>
+        <v>0.9151809090736671</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>658</v>
@@ -8533,19 +8533,19 @@
         <v>441374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>430515</v>
+        <v>429746</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>451028</v>
+        <v>451698</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.880470152057083</v>
+        <v>0.8804701520570829</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8588081819419497</v>
+        <v>0.857272901418308</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8997271520552681</v>
+        <v>0.9010650184708591</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>89747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73513</v>
+        <v>71960</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113380</v>
+        <v>110577</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1286361432544842</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1053672751796261</v>
+        <v>0.1031421376873155</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.162510153563292</v>
+        <v>0.1584919393039886</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -8658,19 +8658,19 @@
         <v>93179</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78236</v>
+        <v>77227</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110387</v>
+        <v>111027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1256827311511673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.105526428069659</v>
+        <v>0.1041653671719642</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1488923515114675</v>
+        <v>0.1497560989233346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>204</v>
@@ -8679,19 +8679,19 @@
         <v>182926</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153809</v>
+        <v>158722</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>207520</v>
+        <v>209123</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1271145874758269</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1068812365698507</v>
+        <v>0.1102950921667067</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1442049912677277</v>
+        <v>0.1453187289727021</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>607933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>584300</v>
+        <v>587103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>624167</v>
+        <v>625720</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.871363856745516</v>
+        <v>0.8713638567455158</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8374898464367078</v>
+        <v>0.8415080606960115</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8946327248203739</v>
+        <v>0.8968578623126845</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>801</v>
@@ -8729,19 +8729,19 @@
         <v>648207</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>630999</v>
+        <v>630359</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>663150</v>
+        <v>664159</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8743172688488327</v>
+        <v>0.8743172688488328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8511076484885323</v>
+        <v>0.8502439010766653</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8944735719303408</v>
+        <v>0.8958346328280358</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1300</v>
@@ -8750,19 +8750,19 @@
         <v>1256140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1231546</v>
+        <v>1229943</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1285257</v>
+        <v>1280344</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8728854125241732</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8557950087322723</v>
+        <v>0.8546812710272979</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8931187634301493</v>
+        <v>0.8897049078332933</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>59966</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47552</v>
+        <v>48034</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75125</v>
+        <v>76533</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07777137061881106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06167225523547878</v>
+        <v>0.06229736235585186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09743188236425683</v>
+        <v>0.09925785419998022</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -8875,19 +8875,19 @@
         <v>75876</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63955</v>
+        <v>62382</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90426</v>
+        <v>89995</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09363842637827835</v>
+        <v>0.09363842637827832</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.078927100310802</v>
+        <v>0.07698579749387224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1115950921366175</v>
+        <v>0.1110629111867145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>189</v>
@@ -8896,19 +8896,19 @@
         <v>135841</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119119</v>
+        <v>116521</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>157833</v>
+        <v>155324</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08590184839320422</v>
+        <v>0.08590184839320421</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07532685617334844</v>
+        <v>0.07368410940843277</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09980840757502915</v>
+        <v>0.09822169903163211</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>711084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>695925</v>
+        <v>694517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>723498</v>
+        <v>723016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9222286293811889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9025681176357432</v>
+        <v>0.9007421458000198</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9383277447645213</v>
+        <v>0.9377026376441482</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>924</v>
@@ -8946,19 +8946,19 @@
         <v>734431</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>719881</v>
+        <v>720312</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>746352</v>
+        <v>747925</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9063615736217217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8884049078633821</v>
+        <v>0.8889370888132856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9210728996891978</v>
+        <v>0.923014202506128</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1594</v>
@@ -8967,19 +8967,19 @@
         <v>1445516</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1423524</v>
+        <v>1426033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1462238</v>
+        <v>1464836</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.914098151606796</v>
+        <v>0.9140981516067956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.900191592424971</v>
+        <v>0.9017783009683682</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9246731438266518</v>
+        <v>0.9263158905915673</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>352339</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>317220</v>
+        <v>317812</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>386752</v>
+        <v>386459</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1036999417719546</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09336382137377135</v>
+        <v>0.09353810171466535</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1138282934511194</v>
+        <v>0.1137421539346241</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>772</v>
@@ -9092,19 +9092,19 @@
         <v>437533</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>409102</v>
+        <v>405596</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>470460</v>
+        <v>470982</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1206837478788075</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1128419101089293</v>
+        <v>0.1118747752307071</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1297661371702448</v>
+        <v>0.1299101034993521</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1206</v>
@@ -9113,19 +9113,19 @@
         <v>789872</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>745954</v>
+        <v>746160</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>838496</v>
+        <v>840008</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1124672495151152</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.106213935105234</v>
+        <v>0.1062433508840256</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1193907724463658</v>
+        <v>0.1196059855734838</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3045339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3010926</v>
+        <v>3011219</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3080458</v>
+        <v>3079866</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8963000582280451</v>
+        <v>0.8963000582280455</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8861717065488807</v>
+        <v>0.8862578460653759</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9066361786262287</v>
+        <v>0.9064618982853345</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4445</v>
@@ -9163,19 +9163,19 @@
         <v>3187915</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3154988</v>
+        <v>3154466</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3216346</v>
+        <v>3219852</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8793162521211925</v>
+        <v>0.8793162521211926</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8702338628297552</v>
+        <v>0.8700898965006479</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8871580898910707</v>
+        <v>0.8881252247692928</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7264</v>
@@ -9184,19 +9184,19 @@
         <v>6233253</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6184629</v>
+        <v>6183117</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6277171</v>
+        <v>6276965</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8875327504848849</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.880609227553634</v>
+        <v>0.8803940144265161</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8937860648947658</v>
+        <v>0.8937566491159743</v>
       </c>
     </row>
     <row r="30">
